--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/15/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.95639999999998</v>
+        <v>-20.84359999999998</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.80630000000001</v>
+        <v>-22.79040000000001</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.9296</v>
+        <v>-21.9261</v>
       </c>
       <c r="B7" t="n">
-        <v>4.632600000000001</v>
+        <v>4.660599999999999</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.6987</v>
+        <v>4.738599999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.66250000000001</v>
+        <v>16.73</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>17.0631</v>
+        <v>16.9919</v>
       </c>
     </row>
     <row r="15">
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.886499999999996</v>
+        <v>5.294699999999997</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.9388</v>
+        <v>-21.93480000000001</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.6126</v>
+        <v>16.74079999999999</v>
       </c>
     </row>
     <row r="17">
@@ -763,15 +763,15 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.36539999999999</v>
+        <v>16.35959999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.97790000000001</v>
+        <v>-23.01780000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>4.818399999999998</v>
+        <v>4.761899999999998</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>10.3443</v>
+        <v>10.4381</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -805,7 +805,7 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>10.1201</v>
+        <v>10.1157</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
@@ -814,7 +814,7 @@
         <v>-6.8</v>
       </c>
       <c r="E22" t="n">
-        <v>17.04090000000001</v>
+        <v>16.94730000000002</v>
       </c>
     </row>
     <row r="23">
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.395799999999999</v>
+        <v>9.196400000000002</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.03419999999999</v>
+        <v>-22.10909999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.68859999999999</v>
+        <v>-21.6798</v>
       </c>
       <c r="B29" t="n">
-        <v>5.317500000000003</v>
+        <v>5.367400000000003</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.10709999999999</v>
+        <v>-21.16389999999999</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1009,7 +1009,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.5656</v>
+        <v>9.668600000000005</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>16.0775</v>
+        <v>15.92769999999999</v>
       </c>
     </row>
     <row r="37">
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.23249999999999</v>
+        <v>-19.41399999999999</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1145,7 +1145,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>10.02029999999999</v>
+        <v>10.1164</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1162,7 +1162,7 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>5.693000000000001</v>
+        <v>5.685200000000002</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
@@ -1179,7 +1179,7 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>5.133800000000005</v>
+        <v>5.229100000000002</v>
       </c>
       <c r="C44" t="n">
         <v>-10.47</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>4.997600000000004</v>
+        <v>4.574400000000003</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,10 +1210,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-22.08460000000001</v>
+        <v>-22.01249999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>5.038200000000004</v>
+        <v>4.977000000000001</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1222,7 +1222,7 @@
         <v>-8.09</v>
       </c>
       <c r="E46" t="n">
-        <v>16.74789999999999</v>
+        <v>16.59709999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1281,7 +1281,7 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>5.056199999999995</v>
+        <v>5.144299999999995</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
@@ -1290,15 +1290,15 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.3488</v>
+        <v>16.3176</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-22.14179999999999</v>
+        <v>-22.1633</v>
       </c>
       <c r="B51" t="n">
-        <v>5.758599999999998</v>
+        <v>5.7616</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-21.99659999999999</v>
+        <v>-22.0526</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.84570000000001</v>
+        <v>-22.78180000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.07969999999999</v>
+        <v>-22.1099</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.0465</v>
+        <v>-22.0517</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.5427</v>
+        <v>-21.49639999999999</v>
       </c>
       <c r="B66" t="n">
-        <v>4.977099999999998</v>
+        <v>5.023699999999998</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.521399999999997</v>
+        <v>5.631299999999999</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-19.43009999999998</v>
+        <v>-19.35139999999998</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-22.09489999999999</v>
+        <v>-22.12859999999999</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.701200000000007</v>
+        <v>9.989000000000006</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.3647</v>
+        <v>5.493199999999999</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.40900000000002</v>
+        <v>-21.41900000000001</v>
       </c>
       <c r="B92" t="n">
-        <v>4.942599999999995</v>
+        <v>4.981999999999996</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>17.94970000000002</v>
+        <v>17.82440000000001</v>
       </c>
     </row>
     <row r="96">
@@ -2080,7 +2080,7 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>6.011999999999998</v>
+        <v>5.339799999999998</v>
       </c>
       <c r="C97" t="n">
         <v>-13.93</v>
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.44619999999999</v>
+        <v>16.6996</v>
       </c>
     </row>
     <row r="98">
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.12929999999999</v>
+        <v>-22.10479999999999</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
